--- a/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8620,7 +8621,6 @@
           <t>招商行业领先混合H</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
           <t>86.74</t>
@@ -8652,7 +8652,6 @@
           <t>西部利得景程灵活配置混合C</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
           <t>80.81</t>
@@ -8684,7 +8683,6 @@
           <t>长信先利半年定期开放混合C</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
           <t>29.00</t>
@@ -8699,6 +8697,2720 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2716</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1673</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5786</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4064</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3836</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3551</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>63.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004190</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010771</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010772</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004191</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006698</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006699</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>65.32</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11417,4 +11418,1922 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9411</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7557</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8899</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3963</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2896</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159708</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得深证红利交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006698</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006699</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13336,4 +13337,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>150</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13345,7 +13346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13356,17 +13357,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13376,14 +13397,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.27</v>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9115</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -13392,14 +13435,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.57</v>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -13408,14 +13473,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>150</v>
-      </c>
-      <c r="D4" t="n">
-        <v>60.68</v>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -13424,13 +13511,759 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>150</v>
+      </c>
+      <c r="D5" t="n">
+        <v>60.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>65</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14162,7 +14163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14173,17 +14174,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14193,14 +14214,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.46</v>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -14209,14 +14252,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.27</v>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -14225,14 +14290,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.57</v>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -14241,14 +14328,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>150</v>
-      </c>
-      <c r="D5" t="n">
-        <v>60.68</v>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -14257,13 +14366,1267 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>150</v>
+      </c>
+      <c r="D6" t="n">
+        <v>60.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>65</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15509,7 +15510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15520,17 +15521,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15540,14 +15561,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.87</v>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -15556,14 +15599,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.46</v>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2903</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -15572,14 +15637,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>49</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.27</v>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -15588,14 +15675,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>70</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.57</v>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -15604,14 +15713,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>150</v>
-      </c>
-      <c r="D6" t="n">
-        <v>60.68</v>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -15620,13 +15751,943 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>150</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>65</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>3.87</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>3.46</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>8.27</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>12.57</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>60.68</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>150</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>65</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.64</v>
       </c>
     </row>
@@ -600,6 +617,1122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159732</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏国证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1643,7 +2776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2989,7 +4122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3805,7 +4938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5723,7 +6856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8437,7 +9570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14172,7 +15305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000100-TCL科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>2.96</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>3.87</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>3.46</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>8.27</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
-        <v>12.57</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D8" t="n">
-        <v>60.68</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2554 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>150</v>
+      </c>
+      <c r="D9" t="n">
+        <v>60.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>65</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2591</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4358</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达行业领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1889</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9840</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6810</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6294</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5607</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4763</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4463</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4015</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009971</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>75.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009972</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3158,1696 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2084</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3840</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方宝昌混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015160</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159732</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏国证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015161</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>65.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010231</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方宝昌混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>016554</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1732,7 +5963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2776,7 +7007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4122,7 +8353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4938,7 +9169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6856,7 +11087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9570,7 +13801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15303,2528 +19534,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>590002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中邮核心成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>63.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4067</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>163407</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全沪深300指数增强(LOF)A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.2591</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005875</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达中盘成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4358</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>110015</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达行业领先混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1889</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159997</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘中证电子ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>26.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9840</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007340</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.94</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6810</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001227</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮信息产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6294</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>110002</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达策略成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.86</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5607</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>112002</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达策略成长二号混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4763</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>240004</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝动力组合混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.09</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.16</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4463</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005495</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>创金合信科技成长主题股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4015</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>290004</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰信优质生活混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3012</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004958</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>圆信永丰优享生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>13.09</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2827</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>159910</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实深证基本面120ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>99.75</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2391</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>960019</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2335</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>217012</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2335</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>159916</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>建信深证基本面60ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>99.32</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1918</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006348</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>银华盛利混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1864</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007685</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华商电子行业量化股票</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1561</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>210001</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>金鹰成份股优选混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>72.04</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1487</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007177</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1414</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000866</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华宝高端制造股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1386</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009055</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>圆信永丰大湾区主题混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1318</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>000594</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>大摩进取优选股票</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1291</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>163116</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1197</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009907</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>75.89</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1091</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>512220</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>景顺长城中证科技传媒通信150ETF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>98.12</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1083</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>159936</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发中证全指可选消费ETF指数</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1029</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>159909</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>招商深证TMT50ETF</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>98.91</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0993</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004044</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>金鹰转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0851</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009971</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>创金合信核心价值混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>40.74</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0824</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001275</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>中邮创新优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0766</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0734</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008245</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>圆信永丰致优混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0635</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>007230</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>兴全沪深300指数增强(LOF)C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>95.96</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0608</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005496</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>创金合信科技成长主题股票C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0501</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>210007</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>金鹰技术领先灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>22.38</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0487</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>000110</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>金鹰元安混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>27.24</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>001479</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>中邮风格轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>009169</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0426</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>160137</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>南方中证互联网指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0409</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>210006</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>金鹰元禧混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>22.68</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0386</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>010307</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0366</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>009056</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>圆信永丰大湾区主题混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>001734</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>001735</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略成长灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>007341</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>南方科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>001226</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>中邮稳健添利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>008246</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>圆信永丰致优混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>004211</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>金鹰周期优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>009908</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>75.89</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>005821</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>82.63</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>159913</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>交银深证300价值ETF</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>98.02</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>002513</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>金鹰元安混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>27.24</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>009170</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>007217</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>010308</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>290010</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>泰信中证200指数基金</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>002196</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>金鹰技术领先灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>22.38</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>005167</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>25.21</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>002425</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>金鹰元禧混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>22.68</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>010531</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>580007</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>49.70</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>006992</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>嘉合锦创优势精选混合</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>88.33</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>009972</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>创金合信核心价值混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>40.74</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>